--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 9,39</t>
+          <t>0,17; 13,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 1,06</t>
+          <t>-13,34; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 13,91</t>
+          <t>0,22; 21,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 2,36</t>
+          <t>-23,7; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 5,25</t>
+          <t>-13,2; 4,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 5,72</t>
+          <t>-10,42; 5,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 7,81</t>
+          <t>-17,05; 6,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 10,35</t>
+          <t>-16,66; 9,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 10,0</t>
+          <t>-3,87; 12,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 53,6</t>
+          <t>-9,56; 51,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 14,92</t>
+          <t>-5,38; 18,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 538,52</t>
+          <t>-14,81; 487,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 12,56</t>
+          <t>0,66; 14,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 28,43</t>
+          <t>-5,25; 29,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 19,74</t>
+          <t>1,08; 24,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 49,85</t>
+          <t>-8,17; 50,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 14,61</t>
+          <t>-0,5; 15,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 8,79</t>
+          <t>-31,98; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 21,67</t>
+          <t>-0,57; 22,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 15,07</t>
+          <t>-49,69; 13,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 17,4</t>
+          <t>-5,94; 18,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,18; 36,36</t>
+          <t>11,56; 36,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 33,34</t>
+          <t>-8,05; 34,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 129,29</t>
+          <t>21,65; 135,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,9</t>
+          <t>1,49; 7,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 30,15</t>
+          <t>0,36; 32,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,15</t>
+          <t>2,07; 11,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 79,4</t>
+          <t>0,63; 99,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>6,65</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-8,8%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>9,41%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,66%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,8%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-12,82; 1,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 2,45</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,17; 13,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; 1,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; 2,45</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-23,09; 2,79</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 6,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,22; 21,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-23,7; 2,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-22,2; 6,13</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-3,98</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-4,89</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-6,87%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-7,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-6,68%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,86%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-12,19; 2,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 4,08</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-13,2; 4,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 5,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 4,08</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-19,32; 4,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 8,64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-17,05; 6,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-16,66; 9,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,47; 8,64</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-8,9</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,49</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>25,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,9</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-11,22%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-18,44%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,4%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>84,03%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-18,44%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-16,94; 4,02</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 2,3</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-3,87; 12,69</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 51,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,99; 2,3</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-25,29; 6,99</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-36,1; 5,21</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-5,38; 18,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,81; 487,18</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-36,1; 5,21</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-3,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>11,22%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,19%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,83%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-7,96; 4,46</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 5,03</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,66; 14,97</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 29,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 5,03</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-12,08; 7,57</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-15,37; 11,48</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,08; 24,39</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 50,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 11,48</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,53</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>8,65%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-3,83; 11,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 12,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,5; 15,53</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-31,98; 7,82</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 12,75</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-5,43; 20,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 25,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-0,57; 22,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-49,69; 13,42</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 25,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>19,83</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19,72</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5,53</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,72</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>46,59%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,7%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>63,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31,83%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,69; 31,05</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 50,85</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-5,94; 18,11</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,56; 36,6</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,6; 50,85</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>14,23; 97,04</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 140,49</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-8,05; 34,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>21,65; 135,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; 140,49</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,53</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-4,75%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,5%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>20,02%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,75%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,98; 3,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 1,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,49; 7,76</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 32,33</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 1,24</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-4,87; 6,46</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-11,22; 2,65</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,07; 11,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 99,88</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 2,65</t>
         </is>
       </c>
     </row>
